--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -1,63 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="개인정보" sheetId="1" r:id="rId1"/>
-    <sheet name="빈소1" sheetId="2" r:id="rId2"/>
-    <sheet name="빈소2" sheetId="3" r:id="rId3"/>
-    <sheet name="빈소3" sheetId="4" r:id="rId4"/>
-    <sheet name="빈소5" sheetId="5" r:id="rId5"/>
-    <sheet name="빈소6" sheetId="6" r:id="rId6"/>
-    <sheet name="특101" sheetId="7" r:id="rId7"/>
-    <sheet name="특102" sheetId="8" r:id="rId8"/>
-    <sheet name="특201" sheetId="9" r:id="rId9"/>
-    <sheet name="특202" sheetId="10" r:id="rId10"/>
+    <sheet name="개인정보" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="빈소1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="빈소2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="빈소3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="빈소5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="빈소6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="특101" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="특102" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="특201" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="특202" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>삼겹살</t>
-  </si>
-  <si>
-    <t>치즈김밥</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,21 +61,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -291,193 +335,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>된장국</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
         <v>3000</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>대패삼겹살</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>치킨</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2500</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2500</v>
-      </c>
+      <c r="D5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -388,7 +388,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>된장국</t>
+          <t>삼겹살</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -405,71 +405,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>양념치킨</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>대패삼겹살</t>
+          <t>치킨</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>치킨</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9000</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -388,53 +388,121 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>배추김치</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="C1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>백김치</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>된장국</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>치킨</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>8000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>16000</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>치즈김밥</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -388,51 +388,51 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>배추김치</t>
+          <t>접시100</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" t="n">
-        <v>8000</v>
+        <v>29000</v>
       </c>
       <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>백김치</t>
+          <t>녹말요지</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>된장국</t>
+          <t>치즈김밥</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -446,63 +446,131 @@
         <v>3000</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>치킨</t>
+          <t>부의봉투</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>16000</v>
+        <v>2400</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>접시140</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>치즈김밥</t>
+          <t>사이다</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>930</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>육개장(컵)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
-        <v>12500</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>새우튀김</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>김밥</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xl/personal.xlsx
+++ b/xl/personal.xlsx
@@ -340,47 +340,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -388,6 +351,140 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>접시100</t>
         </is>
       </c>
@@ -400,7 +497,6 @@
       <c r="D1" t="n">
         <v>29000</v>
       </c>
-      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -417,7 +513,6 @@
       <c r="D2" t="n">
         <v>1100</v>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -434,7 +529,6 @@
       <c r="D3" t="n">
         <v>2500</v>
       </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -451,7 +545,6 @@
       <c r="D4" t="n">
         <v>6000</v>
       </c>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -468,7 +561,6 @@
       <c r="D5" t="n">
         <v>2400</v>
       </c>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -485,7 +577,6 @@
       <c r="D6" t="n">
         <v>4000</v>
       </c>
-      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -502,7 +593,6 @@
       <c r="D7" t="n">
         <v>3000</v>
       </c>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -519,7 +609,6 @@
       <c r="D8" t="n">
         <v>2790</v>
       </c>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -536,7 +625,6 @@
       <c r="D9" t="n">
         <v>5250</v>
       </c>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -553,7 +641,6 @@
       <c r="D10" t="n">
         <v>5200</v>
       </c>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -570,7 +657,6 @@
       <c r="D11" t="n">
         <v>4000</v>
       </c>
-      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
